--- a/MITRE.xlsx
+++ b/MITRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\REPOS\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14154799-6153-4C82-875F-B50E805A1AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3E3E4-6BAD-4CE3-A2DB-189AC713F0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>TA0001</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Организация управления</t>
   </si>
   <si>
-    <t>Эксфильтрация</t>
-  </si>
-  <si>
     <t>Деструктивное воздействие</t>
   </si>
   <si>
@@ -433,6 +430,21 @@
   </si>
   <si>
     <t>228</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Эксфильтрация данных</t>
+  </si>
+  <si>
+    <t>445_08</t>
+  </si>
+  <si>
+    <t>082_15</t>
+  </si>
+  <si>
+    <t>224_19</t>
   </si>
 </sst>
 </file>
@@ -758,8 +770,8 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,13 +781,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>84</v>
@@ -808,7 +820,7 @@
         <v>93</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -862,7 +874,7 @@
         <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -885,7 +897,9 @@
       <c r="K3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>79</v>
       </c>
@@ -893,7 +907,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -948,7 +962,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -962,7 +976,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -975,9 +989,11 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
@@ -990,7 +1006,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1003,7 +1019,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>74</v>
@@ -1020,7 +1036,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -1033,7 +1049,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>75</v>
@@ -1063,7 +1079,7 @@
         <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>76</v>
@@ -1071,7 +1087,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -1080,7 +1096,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1114,11 +1130,11 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1132,7 +1148,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -1180,7 +1196,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
@@ -1204,13 +1220,13 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1226,17 +1242,17 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1250,17 +1266,17 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1273,12 +1289,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
@@ -1295,12 +1313,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
@@ -1342,7 +1362,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1429,7 +1449,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1447,7 +1467,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1465,7 +1485,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1580,7 +1600,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1649,7 +1669,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1695,7 +1715,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1718,7 +1738,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1741,7 +1761,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1765,12 +1785,12 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -1790,7 +1810,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -1800,7 +1820,7 @@
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
